--- a/biology/Médecine/François-René_Lemercier/François-René_Lemercier.xlsx
+++ b/biology/Médecine/François-René_Lemercier/François-René_Lemercier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Ren%C3%A9_Lemercier</t>
+          <t>François-René_Lemercier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-René Lemercier ou encore Le Mercier ou Lemercier-Motterie est un médecin français, né à La Penly le 16 janvier 1782, et mort à Mayenne le 25 septembre 1844. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Ren%C3%A9_Lemercier</t>
+          <t>François-René_Lemercier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 François-René Lemercier : « Le circuit des bois, forêts et taillis, présente la mytrille utile par ses baies ou morets, du muguet, du serpolet, du thym, la sanicle, le ciste, le houx fragon, l'oxalide, l'œillet, la reine des bois, l'hypine, le genièvre,le fraisier et ses fruits exquis et parfumés, des hépatiques, de belles touffes de bryes percées de polytric et ominées d'étamines filiformes qui se marient ensemble et forment les beaux gazons d'Olympe, de magnifiques pelouses diaprées, de superbes verdures qui donnent à ces parties solitaires un air de jeunesse et de fraîcheur qui charment la vue, parent de leur verte émeraude la campagne dépouillée d'ornemens, veuve de ses attraits, et célèbrent leurs noces secrètes et les charmans mystères des urnes et des amphores renfermant leur postétérité. Ces hypnes de procréation ignorée enveloppent d'un manteau protecteur, avec le lierre éclatant de vigueur, plus ami que parasite de la tige qu'il serre de ses mains, les pieds d'arbres vieux et décrépits à tête chenue, à branches desséchées, à cime morte. Dans les larges étangs, au sein des eaux tranquilles, sur le cours des rivières, aux bords des ruisseaux, on aperçoit les longues tiges des joncacées, les pompons dorés de plusieurs typhas, brisés ou plies par les ouragans, mollement inclinés par le doux soufHe des zéphyrs, ou courbés avec grâce au gré d'Eole au milieu de leur humide demeure, se penchant nonchalamment dans la direction de l'onde agitée. ».
 Il est le fils de René Lemercier et de Jacquine Batel. Il effectue ses études médicales à Paris, en particulier à l'hôpital Saint-Louis. Il soutient le 19 août 1808, sous la présidence de Salmtier, sa thèse doctorale intitulée : Dissertation sur le cancer des lèvres, Paris, 1808, 21 pp. in 8. 
 Etabli à Mayenne, il est médecin des hôpitaux et des prisons, médecin des épidémies de l'arrondissement ; en 1816, il fut nommé membre du jury médical du département en remplacement de René-François Plaichard Choltière, et le 5 avril 1825 membre correspondant de l'Académie de médecine. 
-Il apprit que le Congrès scientifique de France, qui devait tenir sa 7e session au Mans en septembre 1839, avait porté sur son programme la statistique du département de la Sarthe. Cette clause ne fut pas remplie. Mais lorsque le Congrès se réunit le 12 septembre, sous la présidence de Pierre-Aimé Lair et d'Arcisse de Caumont, Lemercier apporta à la section de médecine la statistique de la Mayenne, et en donna lecture le 20. Il prit également part aux discussions inscrites à l'ordre du jour de la section, sous la présidence d'Etoc-Demazy en particulier sur le parallèle de la taille et de la lithotritie. Membre, avec Lepage d'Orléans, et Bourjot de Paris, de la Commission chargée de nommer les lauréats de la section de médecine, Lemercier ne put être rangé parmi les médaillés ; mais les congressistes lui votèrent, le 21 septembre, avant de se séparer, tous leurs éloges pour l'ensemble de ses travaux[1].. 
-De ses ouvrages, la Statistique qui fut publiée en partie dans les comptes rendus du Congrès, puis dans l' Annuaire de la Mayenne de 1841, enfin en un volume spécial, la Statistique était le plus original, et le seul édité jusque-là sur l'hygiène mayennaise[2] au XIXe siècle.
-Il épouse à Mayenne, le 14 septembre 1818, Eulalie Lottin[3]. De ce mariage sont issus : 1° Hippolyte-François Lemercier, né à Mayenne le 9 novembre 1820 ; 2° Théophile Lemerccier, né à Mayenne le 21 juin 1822, mort à Mayenne le 3 juillet 1822.
+Il apprit que le Congrès scientifique de France, qui devait tenir sa 7e session au Mans en septembre 1839, avait porté sur son programme la statistique du département de la Sarthe. Cette clause ne fut pas remplie. Mais lorsque le Congrès se réunit le 12 septembre, sous la présidence de Pierre-Aimé Lair et d'Arcisse de Caumont, Lemercier apporta à la section de médecine la statistique de la Mayenne, et en donna lecture le 20. Il prit également part aux discussions inscrites à l'ordre du jour de la section, sous la présidence d'Etoc-Demazy en particulier sur le parallèle de la taille et de la lithotritie. Membre, avec Lepage d'Orléans, et Bourjot de Paris, de la Commission chargée de nommer les lauréats de la section de médecine, Lemercier ne put être rangé parmi les médaillés ; mais les congressistes lui votèrent, le 21 septembre, avant de se séparer, tous leurs éloges pour l'ensemble de ses travaux.. 
+De ses ouvrages, la Statistique qui fut publiée en partie dans les comptes rendus du Congrès, puis dans l' Annuaire de la Mayenne de 1841, enfin en un volume spécial, la Statistique était le plus original, et le seul édité jusque-là sur l'hygiène mayennaise au XIXe siècle.
+Il épouse à Mayenne, le 14 septembre 1818, Eulalie Lottin. De ce mariage sont issus : 1° Hippolyte-François Lemercier, né à Mayenne le 9 novembre 1820 ; 2° Théophile Lemerccier, né à Mayenne le 21 juin 1822, mort à Mayenne le 3 juillet 1822.
 Aperçu sur la statistique et sur la topographie médicales du département de la Mayenne (1839)
 Paul Delaunay indique que Lemercier nous montre les villes mal percées, sales, les immondices entassés aux portes des faubourgs ; les cimetières maintenus en plein centre ; les casernes, les hôpitaux, les prisons, foyers permanents de contagion, installés dans de vieilles bâtisses mal appropriées à cette destination nouvelle ; les maternités seulement projetées ; les salles d'asiles trop peu nombreuses ; les écoles insalubres. Aussi les épidémies font rage : scarlatine, et fièvre catarrhale avec affection des membranes muqueuses » (probablement la grippe); rougeole, variole même, car, malheureusement, la vaccination est peu répandue et Lemercier observe que : « la vaccine semble restreinte à la classe éclairée ; les enfans du peuple et des campagnes sont rarement vaccinés. L'administration n'accorde aucuns fonds pour propager ou encourager cette heureuse découverte qui, loin de se répandre de plus en plus, paraît diminuer de jour en jour. Pendant les saisons froides, l'automne surtout, la plus meurtrière, Lemercier note la fréquence du rhumatisme articulaire aigu, des affections broncho-pleuropulmonaires et des angines. Enfin, sous ce climat humide et assez froid, la scrofule, la phtisie, le rhumatisme chronique, sont endémiques; le rachitisme, les tumeurs blanches, estropient les enfants à foison. Et la propreté étant le moindre souci de la population, la gale et les diverses dermatoses sont fort répandues. A tout cela s'ajoutent les maladies professionnelles : l'industrie générale du département étant le tissage, les ouvriers s'étiolent dans ces caves malsaines, obscures, où toute la journée retentit le tic-tac des métiers. Tisserands, cardeurs et poupeliers meurent phtisiques ; les carriers périssent de coups do froid, et d'alcoolisme: les fondeurs et chaufourniers souffrent d'affections oculaires graves.
 </t>
